--- a/doc/SurveyX 问卷调查系统导入模板.xlsx
+++ b/doc/SurveyX 问卷调查系统导入模板.xlsx
@@ -14,11 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>SurveyX 问卷调查系统导入模板及注意事项
 1.不要调整列内容[第2行和第4行只是提醒作用,程序读取数据时是按照固定的列来的]
-2.题目状态 填写联系方式 可重复提交 重复提交校验方式 填写 `是` 或者 `否` 重复校验方式填写 `浏览器指纹`、`联系方式` 或者 `无`
+2.填写联系方式 可重复提交 重复提交校验方式 填写 `是` 或者 `否` 重复校验方式填写 `浏览器指纹`、`联系方式` 或者 `无`
 3.开始时间和结束时间按照给定格式填写 示例为2023年11月05日11:11:11
 4.题目类型为`单选题`、`多选题`、`简答题` 
 5.选择项如果需要填写备注 在后面加上`[填写备注]`</t>
@@ -30,9 +30,6 @@
     <t>描述</t>
   </si>
   <si>
-    <t>状态</t>
-  </si>
-  <si>
     <t>开始时间</t>
   </si>
   <si>
@@ -54,13 +51,13 @@
     <t>企业年度报告调查问卷</t>
   </si>
   <si>
+    <t>20231105111111</t>
+  </si>
+  <si>
+    <t>20231205111111</t>
+  </si>
+  <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>20231105111111</t>
-  </si>
-  <si>
-    <t>20231205111111</t>
   </si>
   <si>
     <t>无</t>
@@ -212,10 +209,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -238,6 +235,65 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -255,6 +311,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -262,6 +326,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -279,110 +358,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,25 +388,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF7F7F8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,13 +514,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,61 +556,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,79 +580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,9 +625,53 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,50 +720,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -725,10 +728,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,137 +740,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -877,22 +880,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1220,7 +1232,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5221238938053" defaultRowHeight="13.5"/>
@@ -1228,11 +1240,13 @@
     <col min="1" max="3" width="14.5221238938053" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.8938053097345" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.7345132743363" style="1" customWidth="1"/>
-    <col min="6" max="16373" width="14.5221238938053" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5221238938053" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.858407079646" style="1" customWidth="1"/>
+    <col min="8" max="16373" width="14.5221238938053" style="1" customWidth="1"/>
     <col min="16374" max="16384" width="14.5221238938053" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="96" customHeight="1" spans="1:9">
+    <row r="1" ht="106" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1243,296 +1257,290 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="I1" s="10"/>
     </row>
-    <row r="2" ht="27" spans="1:9">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="19" customHeight="1" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" ht="27" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" ht="27" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="4" ht="21" customHeight="1" spans="1:9">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" ht="40.15" spans="1:9">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" ht="40.15" spans="1:9">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" ht="40.15" spans="1:9">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="4"/>
+      <c r="H7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" ht="40.15" spans="1:9">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>4</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" ht="40.15" spans="1:9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" ht="53.25" spans="1:9">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="6">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="4"/>
+      <c r="H10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" ht="40.15" spans="1:9">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="4">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="4"/>
+      <c r="H11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" ht="39.4" spans="1:9">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="9">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="7">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="8"/>
+      <c r="H12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/SurveyX 问卷调查系统导入模板.xlsx
+++ b/doc/SurveyX 问卷调查系统导入模板.xlsx
@@ -18,7 +18,7 @@
   <si>
     <t>SurveyX 问卷调查系统导入模板及注意事项
 1.不要调整列内容[第2行和第4行只是提醒作用,程序读取数据时是按照固定的列来的]
-2.填写联系方式 可重复提交 重复提交校验方式 填写 `是` 或者 `否` 重复校验方式填写 `浏览器指纹`、`联系方式` 或者 `无`
+2.填写联系方式 可重复提交 重复提交校验方式 填写 `是` 或者 `否` 重复校验方式填写 `浏览器指纹`或者`联系方式`
 3.开始时间和结束时间按照给定格式填写 示例为2023年11月05日11:11:11
 4.题目类型为`单选题`、`多选题`、`简答题` 
 5.选择项如果需要填写备注 在后面加上`[填写备注]`</t>
@@ -60,7 +60,7 @@
     <t>是</t>
   </si>
   <si>
-    <t>无</t>
+    <t>联系方式</t>
   </si>
   <si>
     <t>水印测试</t>
@@ -209,9 +209,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -235,6 +235,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -243,7 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,7 +274,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +310,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -272,108 +355,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,181 +406,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,38 +625,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,6 +647,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -691,17 +686,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,10 +728,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,133 +740,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1232,7 +1232,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+      <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5221238938053" defaultRowHeight="13.5"/>

--- a/doc/SurveyX 问卷调查系统导入模板.xlsx
+++ b/doc/SurveyX 问卷调查系统导入模板.xlsx
@@ -14,11 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>SurveyX 问卷调查系统导入模板及注意事项
 1.不要调整列内容[第2行和第4行只是提醒作用,程序读取数据时是按照固定的列来的]
-2.填写联系方式 可重复提交 重复提交校验方式 填写 `是` 或者 `否` 重复校验方式填写 `浏览器指纹`或者`联系方式`
+2.填写联系方式 可重复提交 重复提交校验方式 填写 `是` 或 `否` 
+  重复提交校验方式填写 `浏览器指纹`或`联系方式`
+  联系方式类型填写 `手机号`或`邮箱`或`手机号或邮箱`或`不限制`
 3.开始时间和结束时间按照给定格式填写 示例为2023年11月05日11:11:11
 4.题目类型为`单选题`、`多选题`、`简答题` 
 5.选择项如果需要填写备注 在后面加上`[填写备注]`</t>
@@ -39,6 +41,9 @@
     <t>填写联系方式</t>
   </si>
   <si>
+    <t>联系方式类型</t>
+  </si>
+  <si>
     <t>可重复提交</t>
   </si>
   <si>
@@ -58,6 +63,9 @@
   </si>
   <si>
     <t>是</t>
+  </si>
+  <si>
+    <t>手机号</t>
   </si>
   <si>
     <t>联系方式</t>
@@ -209,10 +217,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -235,6 +243,74 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -243,6 +319,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -250,130 +341,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,181 +414,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,6 +634,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -643,6 +660,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,41 +714,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -728,10 +736,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,16 +748,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -758,115 +766,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1232,17 +1240,19 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5221238938053" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="14.5221238938053" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.5221238938053" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.2035398230088" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.8938053097345" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.7345132743363" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5221238938053" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.858407079646" style="1" customWidth="1"/>
-    <col min="8" max="16373" width="14.5221238938053" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.3185840707965" style="1" customWidth="1"/>
+    <col min="9" max="16373" width="14.5221238938053" style="1" customWidth="1"/>
     <col min="16374" max="16384" width="14.5221238938053" style="1"/>
   </cols>
   <sheetData>
@@ -1259,7 +1269,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" ht="19" customHeight="1" spans="1:8">
+    <row r="2" ht="19" customHeight="1" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1284,77 +1294,83 @@
       <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" ht="27" spans="1:8">
+    <row r="3" ht="27" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" ht="40.15" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1363,64 +1379,64 @@
     </row>
     <row r="6" ht="40.15" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I6" s="6"/>
     </row>
     <row r="7" ht="40.15" spans="1:9">
       <c r="A7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="6">
         <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" ht="40.15" spans="1:9">
       <c r="A8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" s="6">
         <v>4</v>
@@ -1434,107 +1450,107 @@
     </row>
     <row r="9" ht="40.15" spans="1:9">
       <c r="A9" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="6">
         <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
     <row r="10" ht="53.25" spans="1:9">
       <c r="A10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="6">
         <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" ht="40.15" spans="1:9">
       <c r="A11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="6">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" ht="39.4" spans="1:9">
       <c r="A12" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="9">
         <v>8</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I12" s="11"/>
     </row>
